--- a/ExcelOutput/example/static_activity.xlsx
+++ b/ExcelOutput/example/static_activity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="663" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="663"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
     <t>不允许渠道</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>display_order</t>
@@ -494,10 +494,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -529,80 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -611,63 +537,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,9 +558,125 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -689,6 +684,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -711,49 +711,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,133 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,8 +923,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,8 +932,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,6 +964,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,45 +1000,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1017,6 +1008,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1025,10 +1025,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,142 +1037,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1180,9 +1180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1658,12 +1658,12 @@
   <sheetPr/>
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="A4 F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -1722,7 +1722,6 @@
       <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5"/>
       <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2338,8 +2337,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
